--- a/patient_data/patient_60.xlsx
+++ b/patient_data/patient_60.xlsx
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1176,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1380,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1647,16 +1647,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1907,16 +1907,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1952,16 +1952,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2029,16 +2029,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2106,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
